--- a/Stigmaphylon_blast_results.xlsx
+++ b/Stigmaphylon_blast_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcai/Documents/GitHub/Bruno_barcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149200B1-D56F-D440-A49B-AE4D53EEC1EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47F705C-795C-2040-AE50-358C70BDF564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{91EEF0CB-312A-8148-8E8D-C67B694FD2F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="14220" activeTab="1" xr2:uid="{91EEF0CB-312A-8148-8E8D-C67B694FD2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="complete dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="20Mb" sheetId="5" r:id="rId5"/>
     <sheet name="10Mb" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DC48B2-F871-DE41-8C06-3AB98F3E0FAB}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,20 +2913,42 @@
         <v>106</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>90</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:F12 B14:F54 B13:E13 B55:E55 B56:F101">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2936,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1491291A-6733-3F48-A4E9-62D978472328}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4961,19 +4983,41 @@
         <v>106</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>88</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F12 B14:F56 B13:E13 B58:F101 B57:E57">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4983,10 +5027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFAB6A3-82B0-BB4B-9FA1-19568188C7D9}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7008,14 +7052,36 @@
         <v>106</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>78</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>74</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F12 A1:C1 F1 A13:E13 A14:F101">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7025,10 +7091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506C946-C718-8547-866D-806BFC3AEB85}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9050,14 +9116,36 @@
         <v>106</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>59</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>54</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F101">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9067,10 +9155,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB1488D-BA14-9D43-93F9-31D3C181DB86}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11092,14 +11180,36 @@
         <v>106</v>
       </c>
     </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F51 B53:F62 B52:D52 F52 B64:F101 B63:D63 F63">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11111,7 +11221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E1B881-3253-6946-A9BD-106B029822C0}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -13136,7 +13246,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F101 G2">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Stigmaphylon_blast_results.xlsx
+++ b/Stigmaphylon_blast_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcai/Documents/GitHub/Bruno_barcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47F705C-795C-2040-AE50-358C70BDF564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F064FD99-E8E8-574F-8392-D73B93E00FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="14220" activeTab="1" xr2:uid="{91EEF0CB-312A-8148-8E8D-C67B694FD2F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="14220" activeTab="5" xr2:uid="{91EEF0CB-312A-8148-8E8D-C67B694FD2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="complete dataset" sheetId="1" r:id="rId1"/>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1491291A-6733-3F48-A4E9-62D978472328}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11219,10 +11219,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E1B881-3253-6946-A9BD-106B029822C0}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13242,6 +13242,28 @@
       </c>
       <c r="F101" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f>COUNTIFS(B2:B101,"T")</f>
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:F102" si="0">COUNTIFS(C2:C101,"T")</f>
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
